--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>MSCdtRPbQL Market Share Changes due to Rebate Program by Quality Level</t>
   </si>
@@ -23,6 +23,18 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>Datta, S. and Filippini, M.</t>
+  </si>
+  <si>
+    <t>http://www.cepe.ethz.ch/publications/workingPapers/CEPE_WP86.pdf</t>
+  </si>
+  <si>
+    <t>Page 12, first paragrah</t>
+  </si>
+  <si>
+    <t>Analysis based on air conditioners, clothes washers, dishwashers, and refrigerators because data not available for other product types (p. 8)</t>
+  </si>
+  <si>
     <t>Note:</t>
   </si>
   <si>
@@ -35,10 +47,19 @@
     <t>Change in Perc Share</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Currently we only use one quality level for building components in the Mexico data set.</t>
+    <t>Analysing the Impact of Energy Star Rebate Policies in the U.S.</t>
+  </si>
+  <si>
+    <t>Changes across all quality levels must sum to zero.  The U.S. dataset only has two quality levels, so the</t>
+  </si>
+  <si>
+    <t>decrease in the "standard-compliant" share must equal the increase in the "rebate-qualifying" share.</t>
+  </si>
+  <si>
+    <t>Note that these figures are expressed as percentage points, not as a percentage growth (or shrinkage) relative to a BAU quantity.</t>
+  </si>
+  <si>
+    <t>That is, this is a percentage of all sales, not a percentage of the sales of a particular quality level.</t>
   </si>
 </sst>
 </file>
@@ -404,7 +425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
@@ -419,34 +440,65 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
+      <c r="B4" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -459,30 +511,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>-C2</f>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
   </sheetData>
